--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C8E85-0900-4265-8B86-B50110AA4F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B46EE8-2128-42C5-8573-C79CF3280701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="yeni_degiskenler" sheetId="8" r:id="rId1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4C56B-C23F-4706-89CF-D8E5CE555411}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
       </c>
       <c r="G2" s="4">
         <f>yeni_degiskenler!$B$2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       </c>
       <c r="G3" s="4">
         <f>yeni_degiskenler!$B$2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="G4" s="4">
         <f>yeni_degiskenler!$B$2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="G5" s="4">
         <f>yeni_degiskenler!$B$2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
       </c>
       <c r="G6" s="4">
         <f>yeni_degiskenler!$B$2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
       </c>
       <c r="G7" s="4">
         <f>yeni_degiskenler!$B$2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A32C1B-E1ED-41FF-9C46-68C0CD0C2A5F}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B46EE8-2128-42C5-8573-C79CF3280701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAC1E1-2ECC-42EB-81EE-8BFF0BE1F9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,47 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -217,12 +258,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,105 +584,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4C56B-C23F-4706-89CF-D8E5CE555411}">
-  <dimension ref="A1:B11"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>85000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>130000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>170000</v>
       </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -648,7 +705,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +814,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +868,7 @@
         <f>mevcut_degiskenler!$B$2</f>
         <v>0.18</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>yeni_degiskenler!$B$2</f>
         <v>50</v>
       </c>
@@ -838,7 +895,7 @@
         <f>mevcut_degiskenler!$B$2</f>
         <v>0.18</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>yeni_degiskenler!$B$2</f>
         <v>50</v>
       </c>
@@ -864,7 +921,7 @@
         <f>mevcut_degiskenler!$B$2</f>
         <v>0.18</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>yeni_degiskenler!$B$2</f>
         <v>50</v>
       </c>
@@ -891,7 +948,7 @@
         <f>mevcut_degiskenler!$B$2</f>
         <v>0.18</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>yeni_degiskenler!$B$2</f>
         <v>50</v>
       </c>
@@ -917,7 +974,7 @@
         <f>mevcut_degiskenler!$B$2</f>
         <v>0.18</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>yeni_degiskenler!$B$2</f>
         <v>50</v>
       </c>
@@ -943,7 +1000,7 @@
         <f>mevcut_degiskenler!$B$2</f>
         <v>0.18</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f>yeni_degiskenler!$B$2</f>
         <v>50</v>
       </c>

--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAC1E1-2ECC-42EB-81EE-8BFF0BE1F9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEDA82A-CDD1-4B58-B6C9-9FCECEB0A60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
+    <workbookView xWindow="3705" yWindow="2115" windowWidth="19110" windowHeight="11325" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="yeni_degiskenler" sheetId="8" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="7">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="7">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -862,7 +862,7 @@
       </c>
       <c r="E2">
         <f>yeni_degiskenler!B3</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
         <f>mevcut_degiskenler!$B$2</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="E3">
         <f>yeni_degiskenler!B4</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F3">
         <f>mevcut_degiskenler!$B$2</f>

--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEDA82A-CDD1-4B58-B6C9-9FCECEB0A60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE95A00-9CDD-40AC-9A96-6126F74137F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2115" windowWidth="19110" windowHeight="11325" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="yeni_degiskenler" sheetId="8" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="7">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -644,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="7">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="7">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -660,7 +660,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -915,7 +915,7 @@
       </c>
       <c r="E4">
         <f>yeni_degiskenler!B5</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
         <f>mevcut_degiskenler!$B$2</f>
@@ -942,7 +942,7 @@
       </c>
       <c r="E5">
         <f>yeni_degiskenler!B6</f>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="F5">
         <f>mevcut_degiskenler!$B$2</f>
@@ -968,7 +968,7 @@
       </c>
       <c r="E6">
         <f>yeni_degiskenler!B7</f>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="F6">
         <f>mevcut_degiskenler!$B$2</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="E7">
         <f>yeni_degiskenler!B8</f>
-        <v>2.2000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="F7">
         <f>mevcut_degiskenler!$B$2</f>

--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE95A00-9CDD-40AC-9A96-6126F74137F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C137B3-83C2-4FE5-ACD5-3FC6F75FA1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C137B3-83C2-4FE5-ACD5-3FC6F75FA1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA1B99-FBB0-40D5-8711-57FFC5E9AD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
       </c>
       <c r="G2" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="G3" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
       </c>
       <c r="G4" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
       </c>
       <c r="G5" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
       </c>
       <c r="G6" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G7" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA1B99-FBB0-40D5-8711-57FFC5E9AD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9AC6C-B197-4753-A3CF-A07C37A620F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -636,7 +636,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
       </c>
       <c r="G2" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="G3" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
       </c>
       <c r="E4">
         <f>yeni_degiskenler!B5</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
         <f>mevcut_degiskenler!$B$2</f>
@@ -923,7 +923,7 @@
       </c>
       <c r="G4" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
       </c>
       <c r="G5" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
       </c>
       <c r="G6" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G7" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/otv_structure.xlsx
+++ b/r_input/otv_structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcinar\Desktop\TR tax system\TR_tax_system-master_201004_ideal\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9AC6C-B197-4753-A3CF-A07C37A620F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCF2A3-022C-4F35-9102-BB1C09F0EAB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A18D1AA-CE42-4B09-8B5D-9F0A32409ADD}"/>
   </bookViews>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -271,8 +269,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,7 +588,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -870,7 +868,7 @@
       </c>
       <c r="G2" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,7 +895,7 @@
       </c>
       <c r="G3" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,7 +921,7 @@
       </c>
       <c r="G4" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,7 +948,7 @@
       </c>
       <c r="G5" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,7 +974,7 @@
       </c>
       <c r="G6" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +1000,7 @@
       </c>
       <c r="G7" s="3">
         <f>yeni_degiskenler!$B$2</f>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
